--- a/model/Auswertung/uneinheitliches Layout/Ergebnis_Molmo/results.xlsx
+++ b/model/Auswertung/uneinheitliches Layout/Ergebnis_Molmo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>1074</v>
       </c>
       <c r="C2" t="n">
+        <v>890</v>
+      </c>
+      <c r="D2" t="n">
+        <v>184</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1989</v>
+      </c>
+      <c r="F2" t="n">
         <v>202.3277467411546</v>
       </c>
-      <c r="D2" t="n">
-        <v>2173</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>151</v>
       </c>
-      <c r="F2" t="n">
-        <v>250.9933774834437</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>69</v>
       </c>
-      <c r="H2" t="n">
-        <v>80</v>
-      </c>
       <c r="I2" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J2" t="n">
-        <v>263</v>
+        <v>64</v>
       </c>
       <c r="K2" t="n">
+        <v>207</v>
+      </c>
+      <c r="L2" t="n">
+        <v>184.1059602649007</v>
+      </c>
+      <c r="M2" t="n">
+        <v>179.4701986754967</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>45.6953642384106</v>
+      </c>
+      <c r="P2" t="n">
+        <v>50.33112582781457</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.5182926829268293</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.5629139072847682</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.5396825396825397</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>13.96598726467146</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>11.55390104215518</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>1275</v>
       </c>
       <c r="C3" t="n">
-        <v>41.41176470588236</v>
+        <v>1007</v>
       </c>
       <c r="D3" t="n">
-        <v>528</v>
+        <v>268</v>
       </c>
       <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22.11764705882353</v>
+      </c>
+      <c r="G3" t="n">
         <v>154</v>
       </c>
-      <c r="F3" t="n">
-        <v>56.49350649350649</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>82</v>
       </c>
-      <c r="H3" t="n">
-        <v>103</v>
-      </c>
       <c r="I3" t="n">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="J3" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K3" t="n">
+        <v>28</v>
+      </c>
+      <c r="L3" t="n">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43.50649350649351</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>53.24675324675324</v>
+      </c>
+      <c r="P3" t="n">
+        <v>64.28571428571429</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.538961038961039</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.70042194092827</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>56.1376443600089</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>31.23328725985079</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>2048</v>
       </c>
       <c r="C4" t="n">
-        <v>87.353515625</v>
+        <v>1985</v>
       </c>
       <c r="D4" t="n">
-        <v>1789</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
+        <v>1254</v>
+      </c>
+      <c r="F4" t="n">
+        <v>64.306640625</v>
+      </c>
+      <c r="G4" t="n">
         <v>324</v>
       </c>
-      <c r="F4" t="n">
-        <v>100.9259259259259</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>174</v>
       </c>
-      <c r="H4" t="n">
-        <v>275</v>
-      </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="J4" t="n">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="K4" t="n">
+        <v>58</v>
+      </c>
+      <c r="L4" t="n">
+        <v>50.61728395061728</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37.65432098765432</v>
+      </c>
+      <c r="N4" t="n">
+        <v>42</v>
+      </c>
+      <c r="O4" t="n">
+        <v>53.70370370370371</v>
+      </c>
+      <c r="P4" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.7409638554216867</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.7592592592592593</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.75</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>69.09226174894651</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>18.66757835948069</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>357</v>
       </c>
       <c r="C5" t="n">
-        <v>12.88515406162465</v>
+        <v>322</v>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.72549019607843</v>
+      </c>
+      <c r="G5" t="n">
         <v>42</v>
       </c>
-      <c r="F5" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>14</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>18</v>
       </c>
-      <c r="I5" t="n">
-        <v>28</v>
-      </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" t="n">
+        <v>90.47619047619048</v>
+      </c>
+      <c r="M5" t="n">
+        <v>80.95238095238095</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="P5" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.5</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>29.84893648354209</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>5.162665476578615e-153</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>1369</v>
       </c>
       <c r="C6" t="n">
-        <v>44.33893352812272</v>
+        <v>796</v>
       </c>
       <c r="D6" t="n">
-        <v>607</v>
+        <v>573</v>
       </c>
       <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>42.14755295836377</v>
+      </c>
+      <c r="G6" t="n">
         <v>184</v>
       </c>
-      <c r="F6" t="n">
-        <v>44.02173913043478</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>109</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>113</v>
       </c>
-      <c r="I6" t="n">
-        <v>53</v>
-      </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>29.89130434782609</v>
+      </c>
+      <c r="M6" t="n">
+        <v>27.71739130434783</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>59.2391304347826</v>
+      </c>
+      <c r="P6" t="n">
+        <v>61.41304347826087</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.5923913043478261</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.7440273037542662</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>82.12886515219522</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>45.08955601013592</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>755</v>
       </c>
       <c r="C7" t="n">
-        <v>16.29139072847682</v>
+        <v>685</v>
       </c>
       <c r="D7" t="n">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11.52317880794702</v>
+      </c>
+      <c r="G7" t="n">
         <v>104</v>
       </c>
-      <c r="F7" t="n">
-        <v>31.73076923076923</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>77</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>90</v>
       </c>
-      <c r="I7" t="n">
-        <v>25</v>
-      </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>27.88461538461539</v>
+      </c>
+      <c r="M7" t="n">
+        <v>15.38461538461539</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>74.03846153846155</v>
+      </c>
+      <c r="P7" t="n">
+        <v>86.53846153846155</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.7596153846153846</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.8633879781420765</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>80.76461674090517</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>51.7768467307697</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>1135</v>
       </c>
       <c r="C8" t="n">
-        <v>57.44493392070484</v>
+        <v>817</v>
       </c>
       <c r="D8" t="n">
-        <v>652</v>
+        <v>318</v>
       </c>
       <c r="E8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>29.86784140969163</v>
+      </c>
+      <c r="G8" t="n">
         <v>127</v>
       </c>
-      <c r="F8" t="n">
-        <v>76.37795275590551</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>42</v>
       </c>
-      <c r="H8" t="n">
-        <v>71</v>
-      </c>
       <c r="I8" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J8" t="n">
         <v>52</v>
       </c>
       <c r="K8" t="n">
+        <v>25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>81.88976377952756</v>
+      </c>
+      <c r="M8" t="n">
+        <v>60.62992125984253</v>
+      </c>
+      <c r="N8" t="n">
+        <v>27</v>
+      </c>
+      <c r="O8" t="n">
+        <v>33.07086614173229</v>
+      </c>
+      <c r="P8" t="n">
+        <v>54.33070866141733</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>0.3385826771653543</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.5058823529411764</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>36.41432606437226</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>12.28856916108108</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>1071</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26423902894491</v>
+        <v>900</v>
       </c>
       <c r="D9" t="n">
-        <v>292</v>
+        <v>171</v>
       </c>
       <c r="E9" t="n">
+        <v>101</v>
+      </c>
+      <c r="F9" t="n">
+        <v>25.3968253968254</v>
+      </c>
+      <c r="G9" t="n">
         <v>127</v>
       </c>
-      <c r="F9" t="n">
-        <v>36.22047244094488</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>95</v>
       </c>
-      <c r="H9" t="n">
-        <v>107</v>
-      </c>
       <c r="I9" t="n">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="J9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K9" t="n">
+        <v>12</v>
+      </c>
+      <c r="L9" t="n">
+        <v>30.70866141732284</v>
+      </c>
+      <c r="M9" t="n">
+        <v>24.40944881889764</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>74.80314960629921</v>
+      </c>
+      <c r="P9" t="n">
+        <v>81.10236220472441</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.7874015748031497</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.8810572687224669</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>73.06332823503526</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>53.26334668380376</v>
       </c>
     </row>

--- a/model/Auswertung/uneinheitliches Layout/Ergebnis_Molmo/results.xlsx
+++ b/model/Auswertung/uneinheitliches Layout/Ergebnis_Molmo/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1074</v>
+        <v>1040</v>
       </c>
       <c r="B2" t="n">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="C2" t="n">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D2" t="n">
-        <v>1935</v>
+        <v>1947</v>
       </c>
       <c r="E2" t="n">
-        <v>1.9227</v>
+        <v>1.9798</v>
       </c>
       <c r="F2" t="n">
         <v>151</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1275</v>
+        <v>1259</v>
       </c>
       <c r="B3" t="n">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="C3" t="n">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2102</v>
+        <v>0.2049</v>
       </c>
       <c r="F3" t="n">
         <v>154</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2048</v>
+        <v>2004</v>
       </c>
       <c r="B4" t="n">
-        <v>1994</v>
+        <v>1964</v>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1245</v>
+        <v>1226</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6343</v>
+        <v>0.6317</v>
       </c>
       <c r="F4" t="n">
         <v>324</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B5" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1317</v>
+        <v>0.1095</v>
       </c>
       <c r="F5" t="n">
         <v>42</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1369</v>
+        <v>1256</v>
       </c>
       <c r="B6" t="n">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C6" t="n">
-        <v>571</v>
+        <v>463</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4186</v>
+        <v>0.3702</v>
       </c>
       <c r="F6" t="n">
         <v>184</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="B7" t="n">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
         <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0914</v>
+        <v>0.0804</v>
       </c>
       <c r="F7" t="n">
         <v>104</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1135</v>
+        <v>1052</v>
       </c>
       <c r="B8" t="n">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="C8" t="n">
-        <v>312</v>
+        <v>237</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2881</v>
+        <v>0.23</v>
       </c>
       <c r="F8" t="n">
         <v>127</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1071</v>
+        <v>1023</v>
       </c>
       <c r="B9" t="n">
-        <v>969</v>
+        <v>955</v>
       </c>
       <c r="C9" t="n">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="D9" t="n">
         <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1251</v>
+        <v>0.0978</v>
       </c>
       <c r="F9" t="n">
         <v>127</v>
